--- a/Test Cases/Test Case Online Shoping.xlsx
+++ b/Test Cases/Test Case Online Shoping.xlsx
@@ -447,7 +447,7 @@
     <t>User click confirm my order and it successfully navigate to your order on my store is complecte page</t>
   </si>
   <si>
-    <t>altrin130@gmail.com</t>
+    <t>altrin151@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -944,7 +944,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.6328125" defaultRowHeight="16.5" customHeight="1"/>
